--- a/resources/reports/Plea Bargaining Report.xlsx
+++ b/resources/reports/Plea Bargaining Report.xlsx
@@ -146,6 +146,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="18"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -159,9 +162,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -199,7 +199,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="FINAL LOGO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -260,7 +260,7 @@
         <xdr:cNvPr id="3" name="Picture 4" descr="https://encrypted-tbn3.gstatic.com/images?q=tbn:ANd9GcSWcRZsh409i6vKoXKK6TGatFQkWisidMZI_4qnuCV-vuzNcmYO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -596,7 +596,7 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,18 +623,18 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
@@ -646,18 +646,18 @@
       <c r="S2" s="5"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
@@ -669,18 +669,18 @@
       <c r="S3" s="5"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
@@ -692,18 +692,18 @@
       <c r="S4" s="6"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
@@ -715,18 +715,18 @@
       <c r="S5" s="7"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
@@ -780,18 +780,18 @@
       <c r="S8" s="3"/>
     </row>
     <row r="9" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
       <c r="K9" s="10"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
@@ -803,18 +803,18 @@
       <c r="S9" s="11"/>
     </row>
     <row r="10" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
       <c r="K10" s="11"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
